--- a/TC_Design.xlsx
+++ b/TC_Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\study\hk1_year4\Test\final\520H0664_520H0621_520H0418_520H0325\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0615C3-6070-48EE-A5C4-A2FDCA45F903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F7BC8-2809-4802-A62F-A405AE45B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1343,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>17</v>
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>17</v>
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>17</v>
@@ -1445,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>34</v>
@@ -1462,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>34</v>
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>34</v>
@@ -28838,7 +28838,7 @@
   <dimension ref="A1:Y982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
